--- a/datas/TOEIC 토익 빈출 영어단어정리 327.xlsx
+++ b/datas/TOEIC 토익 빈출 영어단어정리 327.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimdongmin/Desktop/memorize_english/datas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C013A-EE41-F946-A11D-510A9DF4B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOEIC 빈출단어정리" sheetId="1" r:id="rId1"/>
@@ -12,15 +18,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TOEIC 빈출단어정리'!$A$1:$Q$168</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'테스트용 출력'!$A$1:$G$183</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TOEIC 빈출단어정리'!$A$2:$F$166</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="652">
   <si>
     <t>abbreviate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2623,14 +2629,18 @@
   </si>
   <si>
     <t>걱정스러운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토익 빈출 영어단어정리 327</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2662,7 +2672,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2751,32 +2761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,7 +2775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2823,13 +2812,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2841,6 +2827,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2889,7 +2878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2922,9 +2911,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2957,6 +2963,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3132,5167 +3155,3355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q242"/>
+  <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="5" width="2.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="2.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="4.625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="26.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11">
+      <c r="D2" s="11">
         <v>42</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11">
+    <row r="3" spans="1:6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="11">
+      <c r="D3" s="11">
         <v>43</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11">
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="11">
+      <c r="D4" s="11">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11">
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11">
+      <c r="D5" s="11">
         <v>45</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11">
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="11">
+      <c r="D6" s="11">
         <v>46</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11">
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="11">
+      <c r="D7" s="11">
         <v>47</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11">
+    <row r="8" spans="1:6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11">
+      <c r="D8" s="11">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11">
+    <row r="9" spans="1:6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11">
+      <c r="D9" s="11">
         <v>49</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11">
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="11">
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11">
+    <row r="11" spans="1:6">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="11">
+      <c r="D11" s="11">
         <v>51</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11">
+    <row r="12" spans="1:6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="11">
+      <c r="D12" s="11">
         <v>52</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11">
+    <row r="13" spans="1:6">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="11">
+      <c r="D13" s="11">
         <v>53</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11">
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="11">
+      <c r="D14" s="11">
         <v>54</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11">
+    <row r="15" spans="1:6">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="11">
+      <c r="D15" s="11">
         <v>55</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11">
+    <row r="16" spans="1:6">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="11">
+      <c r="D16" s="11">
         <v>56</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11">
+    <row r="17" spans="1:6">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="11">
+      <c r="D17" s="11">
         <v>57</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11">
+    <row r="18" spans="1:6">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="11">
+      <c r="D18" s="11">
         <v>58</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11">
+    <row r="19" spans="1:6">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="11">
+      <c r="D19" s="11">
         <v>59</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11">
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="11">
+      <c r="D20" s="11">
         <v>60</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11">
+    <row r="21" spans="1:6">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="11">
+      <c r="D21" s="11">
         <v>61</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11">
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="11">
+      <c r="D22" s="11">
         <v>62</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11">
+    <row r="23" spans="1:6">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="11">
+      <c r="D23" s="11">
         <v>63</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11">
+    <row r="24" spans="1:6">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="11">
+      <c r="D24" s="11">
         <v>64</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11">
+    <row r="25" spans="1:6">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="11">
+      <c r="D25" s="11">
         <v>65</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11">
+    <row r="26" spans="1:6">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="11">
+      <c r="D26" s="11">
         <v>66</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11">
+    <row r="27" spans="1:6">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="11">
+      <c r="D27" s="11">
         <v>67</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11">
+    <row r="28" spans="1:6">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="11">
+      <c r="D28" s="11">
         <v>68</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11">
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="11">
+      <c r="D29" s="11">
         <v>69</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11">
+    <row r="30" spans="1:6">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="11">
+      <c r="D30" s="11">
         <v>70</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11">
+    <row r="31" spans="1:6">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="11">
+      <c r="D31" s="11">
         <v>71</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11">
+    <row r="32" spans="1:6">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="11">
+      <c r="D32" s="11">
         <v>72</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11">
+    <row r="33" spans="1:6">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="11">
+      <c r="D33" s="11">
         <v>73</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11">
+    <row r="34" spans="1:6">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="11">
+      <c r="D34" s="11">
         <v>74</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11">
+    <row r="35" spans="1:6">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="11">
+      <c r="D35" s="11">
         <v>75</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11">
+    <row r="36" spans="1:6">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="11">
+      <c r="D36" s="11">
         <v>76</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11">
+    <row r="37" spans="1:6">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="11">
+      <c r="D37" s="11">
         <v>77</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11">
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="11">
+      <c r="D38" s="11">
         <v>78</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11">
+    <row r="39" spans="1:6">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="11">
+      <c r="D39" s="11">
         <v>79</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11">
+    <row r="40" spans="1:6">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="11">
+      <c r="D40" s="11">
         <v>80</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11">
+    <row r="41" spans="1:6">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="11">
+      <c r="D41" s="11">
         <v>81</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11">
+    <row r="42" spans="1:6">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="11">
+      <c r="D42" s="11">
         <v>82</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F42" s="4"/>
-      <c r="I42" s="3"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="11">
+    <row r="43" spans="1:6">
+      <c r="A43" s="11">
         <v>83</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="1">
+      <c r="D43" s="1">
         <v>124</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="11">
+    <row r="44" spans="1:6">
+      <c r="A44" s="11">
         <v>84</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="1">
+      <c r="D44" s="1">
         <v>125</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="1">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
         <v>85</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="1">
+      <c r="D45" s="1">
         <v>126</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="1">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
         <v>86</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="1">
+      <c r="D46" s="1">
         <v>127</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="1">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>87</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="1">
+      <c r="D47" s="1">
         <v>128</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="1">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
         <v>88</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="1">
+      <c r="D48" s="1">
         <v>129</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="1">
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
         <v>89</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="1">
+      <c r="D49" s="1">
         <v>130</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="1">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
         <v>90</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="1">
+      <c r="D50" s="1">
         <v>131</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="1">
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
         <v>91</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="1">
+      <c r="D51" s="1">
         <v>132</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="1">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
         <v>92</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="1">
+      <c r="D52" s="1">
         <v>133</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="1">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
         <v>93</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="1">
+      <c r="D53" s="1">
         <v>134</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="1">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
         <v>94</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="1">
+      <c r="D54" s="1">
         <v>135</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="1">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
         <v>95</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="1">
+      <c r="D55" s="1">
         <v>136</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="1">
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>96</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="1">
+      <c r="D56" s="1">
         <v>137</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="1">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
         <v>97</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="1">
+      <c r="D57" s="1">
         <v>138</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="1">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
         <v>98</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="1">
+      <c r="D58" s="1">
         <v>139</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="1">
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
         <v>99</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="1">
+      <c r="D59" s="1">
         <v>140</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="1">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
         <v>100</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="1">
+      <c r="D60" s="1">
         <v>141</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="1">
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
         <v>101</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="1">
+      <c r="D61" s="1">
         <v>142</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="1">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>102</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="1">
+      <c r="D62" s="1">
         <v>143</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="1">
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
         <v>103</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="1">
+      <c r="D63" s="1">
         <v>144</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="1">
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
         <v>104</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="1">
+      <c r="D64" s="1">
         <v>145</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="1">
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
         <v>105</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="1">
+      <c r="D65" s="1">
         <v>146</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="1">
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
         <v>106</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="1">
+      <c r="D66" s="1">
         <v>147</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="1">
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
         <v>107</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="1">
+      <c r="D67" s="1">
         <v>148</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="1">
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
         <v>108</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="1">
+      <c r="D68" s="1">
         <v>149</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="1">
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
         <v>109</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="1">
+      <c r="D69" s="1">
         <v>150</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="1">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
         <v>110</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="1">
+      <c r="D70" s="1">
         <v>151</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="1">
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
         <v>111</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="1">
+      <c r="D71" s="1">
         <v>152</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="1">
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
         <v>112</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="1">
+      <c r="D72" s="1">
         <v>153</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="1">
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
         <v>113</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="1">
+      <c r="D73" s="1">
         <v>154</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="1">
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
         <v>114</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="1">
+      <c r="D74" s="1">
         <v>155</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="1">
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
         <v>115</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="1">
+      <c r="D75" s="1">
         <v>156</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="1">
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
         <v>116</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="1">
+      <c r="D76" s="1">
         <v>157</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="1">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
         <v>117</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="1">
+      <c r="D77" s="1">
         <v>158</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="1">
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
         <v>118</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="1">
+      <c r="D78" s="1">
         <v>159</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="1">
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
         <v>119</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="1">
+      <c r="D79" s="1">
         <v>160</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="1">
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
         <v>120</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="1">
+      <c r="D80" s="1">
         <v>161</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="1">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
         <v>121</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="1">
+      <c r="D81" s="1">
         <v>162</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="1">
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>122</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="1">
+      <c r="D82" s="1">
         <v>163</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="1">
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
         <v>123</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="1">
+      <c r="D83" s="1">
         <v>164</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F84" s="4"/>
-      <c r="I84" s="3"/>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="1">
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
         <v>165</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="1">
+      <c r="D84" s="1">
         <v>206</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="Q85" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="1">
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
         <v>166</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="1">
+      <c r="D85" s="1">
         <v>207</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="1">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
         <v>167</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="1">
+      <c r="D86" s="1">
         <v>208</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="Q87" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="1">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
         <v>168</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="1">
+      <c r="D87" s="1">
         <v>209</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="Q88" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="1">
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
         <v>169</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="1">
+      <c r="D88" s="1">
         <v>210</v>
       </c>
-      <c r="P89" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="Q89" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="1">
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
         <v>170</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="1">
+      <c r="D89" s="1">
         <v>211</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="Q90" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="1">
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
         <v>171</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="1">
+      <c r="D90" s="1">
         <v>212</v>
       </c>
-      <c r="P91" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q91" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="1">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
         <v>172</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="1">
+      <c r="D91" s="1">
         <v>213</v>
       </c>
-      <c r="P92" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="Q92" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="1">
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
         <v>173</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="1">
+      <c r="D92" s="1">
         <v>214</v>
       </c>
-      <c r="P93" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="1">
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
         <v>174</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="1">
+      <c r="D93" s="1">
         <v>215</v>
       </c>
-      <c r="P94" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="1">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
         <v>175</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="1">
+      <c r="D94" s="1">
         <v>216</v>
       </c>
-      <c r="P95" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="Q95" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="1">
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
         <v>176</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="1">
+      <c r="D95" s="1">
         <v>217</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="Q96" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="1">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
         <v>177</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="1">
+      <c r="D96" s="1">
         <v>218</v>
       </c>
-      <c r="P97" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="1">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
         <v>178</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="1">
+      <c r="D97" s="1">
         <v>219</v>
       </c>
-      <c r="P98" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="1">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
         <v>179</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="1">
+      <c r="D98" s="1">
         <v>220</v>
       </c>
-      <c r="P99" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="Q99" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="1">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
         <v>180</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="1">
+      <c r="D99" s="1">
         <v>221</v>
       </c>
-      <c r="P100" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="Q100" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="1">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
         <v>181</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="1">
+      <c r="D100" s="1">
         <v>222</v>
       </c>
-      <c r="P101" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="Q101" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="1">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
         <v>182</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="1">
+      <c r="D101" s="1">
         <v>223</v>
       </c>
-      <c r="P102" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="Q102" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="1">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
         <v>183</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="1">
+      <c r="D102" s="1">
         <v>224</v>
       </c>
-      <c r="P103" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="1">
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
         <v>184</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="1">
+      <c r="D103" s="1">
         <v>225</v>
       </c>
-      <c r="P104" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="1">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
         <v>185</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="1">
+      <c r="D104" s="1">
         <v>226</v>
       </c>
-      <c r="P105" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="1">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
         <v>186</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="1">
+      <c r="D105" s="1">
         <v>227</v>
       </c>
-      <c r="P106" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="1">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
         <v>187</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="1">
+      <c r="D106" s="1">
         <v>228</v>
       </c>
-      <c r="P107" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="1">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
         <v>188</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="1">
+      <c r="D107" s="1">
         <v>229</v>
       </c>
-      <c r="P108" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="Q108" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="1">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
         <v>189</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="1">
+      <c r="D108" s="1">
         <v>230</v>
       </c>
-      <c r="P109" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="Q109" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="1">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
         <v>190</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="1">
+      <c r="D109" s="1">
         <v>231</v>
       </c>
-      <c r="P110" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="1">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
         <v>191</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="1">
+      <c r="D110" s="1">
         <v>232</v>
       </c>
-      <c r="P111" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="1">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
         <v>192</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="1">
+      <c r="D111" s="1">
         <v>233</v>
       </c>
-      <c r="P112" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="Q112" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="1">
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
         <v>193</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I113" s="3"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="1">
+      <c r="D112" s="1">
         <v>234</v>
       </c>
-      <c r="P113" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="Q113" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="1">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>194</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="1">
+      <c r="D113" s="1">
         <v>235</v>
       </c>
-      <c r="P114" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="Q114" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="1">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>195</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="1">
+      <c r="D114" s="1">
         <v>236</v>
       </c>
-      <c r="P115" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="Q115" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="1">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
         <v>196</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="1">
+      <c r="D115" s="1">
         <v>237</v>
       </c>
-      <c r="P116" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="Q116" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="1">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
         <v>197</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="1">
+      <c r="D116" s="1">
         <v>238</v>
       </c>
-      <c r="P117" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="Q117" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="1">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
         <v>198</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="1">
+      <c r="D117" s="1">
         <v>239</v>
       </c>
-      <c r="P118" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="Q118" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="1">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
         <v>199</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="1">
+      <c r="D118" s="1">
         <v>240</v>
       </c>
-      <c r="P119" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="1">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
         <v>200</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="1">
+      <c r="D119" s="1">
         <v>241</v>
       </c>
-      <c r="P120" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="Q120" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="1">
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
         <v>201</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="1">
+      <c r="D120" s="1">
         <v>242</v>
       </c>
-      <c r="P121" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="1">
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
         <v>202</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="1">
+      <c r="D121" s="1">
         <v>243</v>
       </c>
-      <c r="P122" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="Q122" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="1">
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
         <v>203</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="1">
+      <c r="D122" s="1">
         <v>244</v>
       </c>
-      <c r="P123" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="Q123" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="1">
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
         <v>204</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="1">
+      <c r="D123" s="1">
         <v>245</v>
       </c>
-      <c r="P124" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="1">
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
         <v>205</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="1">
+      <c r="D124" s="1">
         <v>246</v>
       </c>
-      <c r="P125" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F126" s="4"/>
-      <c r="I126" s="3"/>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="1">
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
         <v>247</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="1">
+      <c r="D125" s="1">
         <v>288</v>
       </c>
-      <c r="P127" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="Q127" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="1">
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>248</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I128" s="3"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="1">
+      <c r="D126" s="1">
         <v>289</v>
       </c>
-      <c r="P128" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="1">
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
         <v>249</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I129" s="5"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="1">
+      <c r="D127" s="1">
         <v>290</v>
       </c>
-      <c r="P129" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="Q129" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="1">
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
         <v>250</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="1">
+      <c r="D128" s="1">
         <v>291</v>
       </c>
-      <c r="P130" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="Q130" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="1">
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
         <v>251</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="1">
+      <c r="D129" s="1">
         <v>292</v>
       </c>
-      <c r="P131" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="Q131" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="1">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
         <v>252</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
-      <c r="M132" s="12"/>
-      <c r="N132" s="12"/>
-      <c r="O132" s="1">
+      <c r="D130" s="1">
         <v>293</v>
       </c>
-      <c r="P132" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="Q132" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="1">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
         <v>253</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I133" s="3"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
-      <c r="O133" s="1">
+      <c r="D131" s="1">
         <v>294</v>
       </c>
-      <c r="P133" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="Q133" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="1">
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
         <v>254</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I134" s="3"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="12"/>
-      <c r="N134" s="12"/>
-      <c r="O134" s="1">
+      <c r="D132" s="1">
         <v>295</v>
       </c>
-      <c r="P134" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="Q134" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="1">
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
         <v>255</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="12"/>
-      <c r="O135" s="1">
+      <c r="D133" s="1">
         <v>296</v>
       </c>
-      <c r="P135" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="Q135" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="1">
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
         <v>256</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I136" s="3"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="1">
+      <c r="D134" s="1">
         <v>297</v>
       </c>
-      <c r="P136" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="Q136" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="1">
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
         <v>257</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I137" s="3"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="1">
+      <c r="D135" s="1">
         <v>298</v>
       </c>
-      <c r="P137" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="1">
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>258</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
-      <c r="O138" s="1">
+      <c r="D136" s="1">
         <v>299</v>
       </c>
-      <c r="P138" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="1">
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
         <v>259</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="1">
+      <c r="D137" s="1">
         <v>300</v>
       </c>
-      <c r="P139" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="Q139" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="1">
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
         <v>260</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="1">
+      <c r="D138" s="1">
         <v>301</v>
       </c>
-      <c r="P140" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="Q140" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="1">
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
         <v>261</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="1">
+      <c r="D139" s="1">
         <v>302</v>
       </c>
-      <c r="P141" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="1">
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
         <v>262</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="1">
+      <c r="D140" s="1">
         <v>303</v>
       </c>
-      <c r="P142" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="Q142" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="1">
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
         <v>263</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="I143" s="3"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="1">
+      <c r="D141" s="1">
         <v>304</v>
       </c>
-      <c r="P143" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="Q143" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="1">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
         <v>264</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="1">
+      <c r="D142" s="1">
         <v>305</v>
       </c>
-      <c r="P144" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="Q144" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="1">
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
         <v>265</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="1">
+      <c r="D143" s="1">
         <v>306</v>
       </c>
-      <c r="P145" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="Q145" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="1">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
         <v>266</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="1">
+      <c r="D144" s="1">
         <v>307</v>
       </c>
-      <c r="P146" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="Q146" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="1">
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
         <v>267</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="1">
+      <c r="D145" s="1">
         <v>308</v>
       </c>
-      <c r="P147" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="Q147" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="1">
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
         <v>268</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="1">
+      <c r="D146" s="1">
         <v>309</v>
       </c>
-      <c r="P148" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="Q148" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="1">
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
         <v>269</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="1">
+      <c r="D147" s="1">
         <v>310</v>
       </c>
-      <c r="P149" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="Q149" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="1">
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
         <v>270</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-      <c r="O150" s="1">
+      <c r="D148" s="1">
         <v>311</v>
       </c>
-      <c r="P150" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="Q150" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="1">
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
         <v>271</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I151" s="3"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="1">
+      <c r="D149" s="1">
         <v>312</v>
       </c>
-      <c r="P151" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="Q151" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="1">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
         <v>272</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="I152" s="3"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="1">
+      <c r="D150" s="1">
         <v>313</v>
       </c>
-      <c r="P152" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="Q152" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="1">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
         <v>273</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I153" s="3"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="1">
+      <c r="D151" s="1">
         <v>314</v>
       </c>
-      <c r="P153" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="Q153" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="1">
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
         <v>274</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="1">
+      <c r="D152" s="1">
         <v>315</v>
       </c>
-      <c r="P154" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="Q154" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="1">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
         <v>275</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I155" s="3"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="1">
+      <c r="D153" s="1">
         <v>316</v>
       </c>
-      <c r="P155" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Q155" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="1">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
         <v>276</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I156" s="3"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
-      <c r="O156" s="1">
+      <c r="D154" s="1">
         <v>317</v>
       </c>
-      <c r="P156" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Q156" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="1">
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
         <v>277</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="I157" s="3"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="1">
+      <c r="D155" s="1">
         <v>318</v>
       </c>
-      <c r="P157" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Q157" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="1">
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
         <v>278</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="I158" s="3"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
-      <c r="O158" s="1">
+      <c r="D156" s="1">
         <v>319</v>
       </c>
-      <c r="P158" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="Q158" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="1">
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
         <v>279</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="I159" s="3"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="1">
+      <c r="D157" s="1">
         <v>320</v>
       </c>
-      <c r="P159" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="Q159" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="1">
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
         <v>280</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="1">
+      <c r="D158" s="1">
         <v>321</v>
       </c>
-      <c r="P160" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="Q160" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="1">
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
         <v>281</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H161" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I161" s="3"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="1">
+      <c r="D159" s="1">
         <v>322</v>
       </c>
-      <c r="P161" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="Q161" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="1">
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
         <v>282</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="1">
+      <c r="D160" s="1">
         <v>323</v>
       </c>
-      <c r="P162" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="Q162" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="1">
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
         <v>283</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="1">
+      <c r="D161" s="1">
         <v>324</v>
       </c>
-      <c r="P163" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="Q163" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="1">
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
         <v>284</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H164" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="I164" s="3"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="1">
+      <c r="D162" s="1">
         <v>325</v>
       </c>
-      <c r="P164" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="Q164" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>285</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D163" s="1">
+        <v>326</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>286</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D164" s="1">
+        <v>327</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>287</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="1">
-        <v>285</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="I165" s="3"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="1">
-        <v>326</v>
-      </c>
-      <c r="P165" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q165" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="1">
-        <v>286</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="I166" s="3"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="1">
-        <v>327</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q166" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="1">
-        <v>287</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I167" s="3"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="14"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="6"/>
-      <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F170" s="4"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F171" s="4"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F172" s="4"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F173" s="4"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F174" s="4"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F175" s="4"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="8"/>
-      <c r="Q175" s="8"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F176" s="4"/>
-    </row>
-    <row r="241" spans="15:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O241" s="9"/>
-    </row>
-    <row r="242" spans="15:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O242" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="4"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8301,7 +6512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8310,19 +6521,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -8339,7 +6550,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="11">
         <v>2</v>
       </c>
@@ -8356,7 +6567,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="11">
         <v>3</v>
       </c>
@@ -8373,7 +6584,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -8390,7 +6601,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -8407,7 +6618,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="11">
         <v>6</v>
       </c>
@@ -8424,7 +6635,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="11">
         <v>7</v>
       </c>
@@ -8441,7 +6652,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="11">
         <v>8</v>
       </c>
@@ -8458,7 +6669,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="11">
         <v>9</v>
       </c>
@@ -8475,7 +6686,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -8492,7 +6703,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="11">
         <v>11</v>
       </c>
@@ -8509,7 +6720,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -8526,7 +6737,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -8543,7 +6754,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -8560,7 +6771,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -8577,7 +6788,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -8594,7 +6805,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -8611,7 +6822,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -8628,7 +6839,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -8645,7 +6856,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -8662,7 +6873,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -8679,7 +6890,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="11">
         <v>22</v>
       </c>
@@ -8696,7 +6907,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" customHeight="1">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -8713,7 +6924,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18" customHeight="1">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -8730,7 +6941,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="11">
         <v>25</v>
       </c>
@@ -8747,7 +6958,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="11">
         <v>26</v>
       </c>
@@ -8764,7 +6975,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="11">
         <v>27</v>
       </c>
@@ -8781,7 +6992,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="18" customHeight="1">
       <c r="A28" s="11">
         <v>28</v>
       </c>
@@ -8798,7 +7009,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="18" customHeight="1">
       <c r="A29" s="11">
         <v>29</v>
       </c>
@@ -8815,7 +7026,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="11">
         <v>30</v>
       </c>
@@ -8832,7 +7043,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="11">
         <v>31</v>
       </c>
@@ -8849,7 +7060,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -8866,7 +7077,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="18" customHeight="1">
       <c r="A33" s="11">
         <v>33</v>
       </c>
@@ -8883,7 +7094,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="11">
         <v>34</v>
       </c>
@@ -8900,7 +7111,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="11">
         <v>35</v>
       </c>
@@ -8917,7 +7128,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="18" customHeight="1">
       <c r="A36" s="11">
         <v>36</v>
       </c>
@@ -8934,7 +7145,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="18" customHeight="1">
       <c r="A37" s="11">
         <v>37</v>
       </c>
@@ -8951,7 +7162,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="18" customHeight="1">
       <c r="A38" s="11">
         <v>38</v>
       </c>
@@ -8968,7 +7179,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -8985,7 +7196,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="18" customHeight="1">
       <c r="A40" s="11">
         <v>40</v>
       </c>
@@ -9002,7 +7213,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
       <c r="A41" s="11">
         <v>41</v>
       </c>
@@ -9019,7 +7230,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="18" customHeight="1">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -9036,7 +7247,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -9053,7 +7264,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -9070,7 +7281,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="11">
         <v>45</v>
       </c>
@@ -9087,7 +7298,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="18" customHeight="1">
       <c r="A46" s="11">
         <v>46</v>
       </c>
@@ -9104,7 +7315,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="18" customHeight="1">
       <c r="A47" s="11">
         <v>47</v>
       </c>
@@ -9121,7 +7332,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="11">
         <v>48</v>
       </c>
@@ -9138,7 +7349,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="11">
         <v>49</v>
       </c>
@@ -9155,12 +7366,12 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="18" customHeight="1">
       <c r="A50" s="4"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="1">
         <v>99</v>
       </c>
@@ -9177,7 +7388,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="1">
         <v>100</v>
       </c>
@@ -9194,7 +7405,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="1">
         <v>101</v>
       </c>
@@ -9211,7 +7422,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="18" customHeight="1">
       <c r="A54" s="1">
         <v>102</v>
       </c>
@@ -9228,7 +7439,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="18" customHeight="1">
       <c r="A55" s="1">
         <v>103</v>
       </c>
@@ -9245,7 +7456,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="18" customHeight="1">
       <c r="A56" s="1">
         <v>104</v>
       </c>
@@ -9262,7 +7473,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="18" customHeight="1">
       <c r="A57" s="1">
         <v>105</v>
       </c>
@@ -9279,7 +7490,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="18" customHeight="1">
       <c r="A58" s="1">
         <v>106</v>
       </c>
@@ -9296,7 +7507,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="18" customHeight="1">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -9313,7 +7524,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="18" customHeight="1">
       <c r="A60" s="1">
         <v>108</v>
       </c>
@@ -9330,7 +7541,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="18" customHeight="1">
       <c r="A61" s="1">
         <v>109</v>
       </c>
@@ -9347,7 +7558,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="18" customHeight="1">
       <c r="A62" s="1">
         <v>110</v>
       </c>
@@ -9364,7 +7575,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="18" customHeight="1">
       <c r="A63" s="1">
         <v>111</v>
       </c>
@@ -9381,7 +7592,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="18" customHeight="1">
       <c r="A64" s="1">
         <v>112</v>
       </c>
@@ -9398,7 +7609,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="1">
         <v>113</v>
       </c>
@@ -9415,7 +7626,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="1">
         <v>114</v>
       </c>
@@ -9432,7 +7643,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="1">
         <v>115</v>
       </c>
@@ -9449,7 +7660,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="1">
         <v>116</v>
       </c>
@@ -9466,7 +7677,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="1">
         <v>117</v>
       </c>
@@ -9483,7 +7694,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="1">
         <v>118</v>
       </c>
@@ -9500,7 +7711,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="1">
         <v>119</v>
       </c>
@@ -9517,7 +7728,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="1">
         <v>120</v>
       </c>
@@ -9534,7 +7745,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="1">
         <v>121</v>
       </c>
@@ -9551,7 +7762,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="18" customHeight="1">
       <c r="A74" s="1">
         <v>122</v>
       </c>
@@ -9568,7 +7779,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="18" customHeight="1">
       <c r="A75" s="1">
         <v>123</v>
       </c>
@@ -9585,7 +7796,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="18" customHeight="1">
       <c r="A76" s="1">
         <v>124</v>
       </c>
@@ -9602,7 +7813,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="18" customHeight="1">
       <c r="A77" s="1">
         <v>125</v>
       </c>
@@ -9619,7 +7830,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="18" customHeight="1">
       <c r="A78" s="1">
         <v>126</v>
       </c>
@@ -9636,7 +7847,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="18" customHeight="1">
       <c r="A79" s="1">
         <v>127</v>
       </c>
@@ -9653,7 +7864,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="18" customHeight="1">
       <c r="A80" s="1">
         <v>128</v>
       </c>
@@ -9670,7 +7881,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="18" customHeight="1">
       <c r="A81" s="1">
         <v>129</v>
       </c>
@@ -9687,7 +7898,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="18" customHeight="1">
       <c r="A82" s="1">
         <v>130</v>
       </c>
@@ -9704,7 +7915,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="18" customHeight="1">
       <c r="A83" s="1">
         <v>131</v>
       </c>
@@ -9721,7 +7932,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="18" customHeight="1">
       <c r="A84" s="1">
         <v>132</v>
       </c>
@@ -9738,7 +7949,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="18" customHeight="1">
       <c r="A85" s="1">
         <v>133</v>
       </c>
@@ -9755,7 +7966,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="18" customHeight="1">
       <c r="A86" s="1">
         <v>134</v>
       </c>
@@ -9772,7 +7983,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="18" customHeight="1">
       <c r="A87" s="1">
         <v>135</v>
       </c>
@@ -9789,7 +8000,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="18" customHeight="1">
       <c r="A88" s="1">
         <v>136</v>
       </c>
@@ -9806,7 +8017,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="1">
         <v>137</v>
       </c>
@@ -9823,7 +8034,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="18" customHeight="1">
       <c r="A90" s="1">
         <v>138</v>
       </c>
@@ -9840,7 +8051,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="18" customHeight="1">
       <c r="A91" s="1">
         <v>139</v>
       </c>
@@ -9857,7 +8068,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="18" customHeight="1">
       <c r="A92" s="1">
         <v>140</v>
       </c>
@@ -9874,7 +8085,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="18" customHeight="1">
       <c r="A93" s="1">
         <v>141</v>
       </c>
@@ -9891,7 +8102,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="18" customHeight="1">
       <c r="A94" s="1">
         <v>142</v>
       </c>
@@ -9908,7 +8119,7 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="18" customHeight="1">
       <c r="A95" s="1">
         <v>143</v>
       </c>
@@ -9925,7 +8136,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="18" customHeight="1">
       <c r="A96" s="1">
         <v>144</v>
       </c>
@@ -9942,7 +8153,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="18" customHeight="1">
       <c r="A97" s="1">
         <v>145</v>
       </c>
@@ -9959,7 +8170,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="18" customHeight="1">
       <c r="A98" s="1">
         <v>146</v>
       </c>
@@ -9976,7 +8187,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="18" customHeight="1">
       <c r="A99" s="1">
         <v>147</v>
       </c>
@@ -9993,12 +8204,12 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="18" customHeight="1">
       <c r="A100" s="4"/>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="18" customHeight="1">
       <c r="A101" s="1">
         <v>197</v>
       </c>
@@ -10015,7 +8226,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="18" customHeight="1">
       <c r="A102" s="1">
         <v>198</v>
       </c>
@@ -10032,7 +8243,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="18" customHeight="1">
       <c r="A103" s="1">
         <v>199</v>
       </c>
@@ -10049,7 +8260,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="18" customHeight="1">
       <c r="A104" s="1">
         <v>200</v>
       </c>
@@ -10066,7 +8277,7 @@
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="18" customHeight="1">
       <c r="A105" s="1">
         <v>201</v>
       </c>
@@ -10083,7 +8294,7 @@
       </c>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="18" customHeight="1">
       <c r="A106" s="1">
         <v>202</v>
       </c>
@@ -10100,7 +8311,7 @@
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="18" customHeight="1">
       <c r="A107" s="1">
         <v>203</v>
       </c>
@@ -10117,7 +8328,7 @@
       </c>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="18" customHeight="1">
       <c r="A108" s="1">
         <v>204</v>
       </c>
@@ -10134,7 +8345,7 @@
       </c>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="18" customHeight="1">
       <c r="A109" s="1">
         <v>205</v>
       </c>
@@ -10151,7 +8362,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="18" customHeight="1">
       <c r="A110" s="1">
         <v>206</v>
       </c>
@@ -10168,7 +8379,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="18" customHeight="1">
       <c r="A111" s="1">
         <v>207</v>
       </c>
@@ -10185,7 +8396,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="18" customHeight="1">
       <c r="A112" s="1">
         <v>208</v>
       </c>
@@ -10202,7 +8413,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="18" customHeight="1">
       <c r="A113" s="1">
         <v>209</v>
       </c>
@@ -10219,7 +8430,7 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="18" customHeight="1">
       <c r="A114" s="1">
         <v>210</v>
       </c>
@@ -10236,7 +8447,7 @@
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="18" customHeight="1">
       <c r="A115" s="1">
         <v>211</v>
       </c>
@@ -10253,7 +8464,7 @@
       </c>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="18" customHeight="1">
       <c r="A116" s="1">
         <v>212</v>
       </c>
@@ -10270,7 +8481,7 @@
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="18" customHeight="1">
       <c r="A117" s="1">
         <v>213</v>
       </c>
@@ -10287,7 +8498,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="18" customHeight="1">
       <c r="A118" s="1">
         <v>214</v>
       </c>
@@ -10304,7 +8515,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="18" customHeight="1">
       <c r="A119" s="1">
         <v>215</v>
       </c>
@@ -10321,7 +8532,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="18" customHeight="1">
       <c r="A120" s="1">
         <v>216</v>
       </c>
@@ -10338,7 +8549,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="18" customHeight="1">
       <c r="A121" s="1">
         <v>217</v>
       </c>
@@ -10355,7 +8566,7 @@
       </c>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="18" customHeight="1">
       <c r="A122" s="1">
         <v>218</v>
       </c>
@@ -10372,7 +8583,7 @@
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="18" customHeight="1">
       <c r="A123" s="1">
         <v>219</v>
       </c>
@@ -10389,7 +8600,7 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="18" customHeight="1">
       <c r="A124" s="1">
         <v>220</v>
       </c>
@@ -10406,7 +8617,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="18" customHeight="1">
       <c r="A125" s="1">
         <v>221</v>
       </c>
@@ -10423,7 +8634,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="18" customHeight="1">
       <c r="A126" s="1">
         <v>222</v>
       </c>
@@ -10440,7 +8651,7 @@
       </c>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="18" customHeight="1">
       <c r="A127" s="1">
         <v>223</v>
       </c>
@@ -10457,7 +8668,7 @@
       </c>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="18" customHeight="1">
       <c r="A128" s="1">
         <v>224</v>
       </c>
@@ -10474,7 +8685,7 @@
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="18" customHeight="1">
       <c r="A129" s="1">
         <v>225</v>
       </c>
@@ -10491,7 +8702,7 @@
       </c>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="18" customHeight="1">
       <c r="A130" s="1">
         <v>226</v>
       </c>
@@ -10508,7 +8719,7 @@
       </c>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="18" customHeight="1">
       <c r="A131" s="1">
         <v>227</v>
       </c>
@@ -10525,7 +8736,7 @@
       </c>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="18" customHeight="1">
       <c r="A132" s="1">
         <v>228</v>
       </c>
@@ -10542,7 +8753,7 @@
       </c>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="18" customHeight="1">
       <c r="A133" s="1">
         <v>229</v>
       </c>
@@ -10559,7 +8770,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="18" customHeight="1">
       <c r="A134" s="1">
         <v>230</v>
       </c>
@@ -10576,7 +8787,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="18" customHeight="1">
       <c r="A135" s="1">
         <v>231</v>
       </c>
@@ -10593,7 +8804,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="18" customHeight="1">
       <c r="A136" s="1">
         <v>232</v>
       </c>
@@ -10610,7 +8821,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="18" customHeight="1">
       <c r="A137" s="1">
         <v>233</v>
       </c>
@@ -10627,7 +8838,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="18" customHeight="1">
       <c r="A138" s="1">
         <v>234</v>
       </c>
@@ -10644,7 +8855,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="18" customHeight="1">
       <c r="A139" s="1">
         <v>235</v>
       </c>
@@ -10661,7 +8872,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="18" customHeight="1">
       <c r="A140" s="1">
         <v>236</v>
       </c>
@@ -10678,7 +8889,7 @@
       </c>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="18" customHeight="1">
       <c r="A141" s="1">
         <v>237</v>
       </c>
@@ -10695,7 +8906,7 @@
       </c>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="18" customHeight="1">
       <c r="A142" s="1">
         <v>238</v>
       </c>
@@ -10712,7 +8923,7 @@
       </c>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="18" customHeight="1">
       <c r="A143" s="1">
         <v>239</v>
       </c>
@@ -10729,7 +8940,7 @@
       </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="18" customHeight="1">
       <c r="A144" s="1">
         <v>240</v>
       </c>
@@ -10746,7 +8957,7 @@
       </c>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="18" customHeight="1">
       <c r="A145" s="1">
         <v>241</v>
       </c>
@@ -10763,7 +8974,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="18" customHeight="1">
       <c r="A146" s="1">
         <v>242</v>
       </c>
@@ -10780,7 +8991,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="18" customHeight="1">
       <c r="A147" s="1">
         <v>243</v>
       </c>
@@ -10797,7 +9008,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="18" customHeight="1">
       <c r="A148" s="1">
         <v>244</v>
       </c>
@@ -10814,7 +9025,7 @@
       </c>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="18" customHeight="1">
       <c r="A149" s="1">
         <v>245</v>
       </c>
@@ -10831,12 +9042,12 @@
       </c>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="18" customHeight="1">
       <c r="A150" s="4"/>
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="18" customHeight="1">
       <c r="A151" s="1">
         <v>295</v>
       </c>
@@ -10847,7 +9058,7 @@
       <c r="D151" s="3"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="18" customHeight="1">
       <c r="A152" s="1">
         <v>296</v>
       </c>
@@ -10858,7 +9069,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="18" customHeight="1">
       <c r="A153" s="1">
         <v>297</v>
       </c>
@@ -10869,7 +9080,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="18" customHeight="1">
       <c r="A154" s="1">
         <v>298</v>
       </c>
@@ -10880,7 +9091,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="18" customHeight="1">
       <c r="A155" s="1">
         <v>299</v>
       </c>
@@ -10891,7 +9102,7 @@
       <c r="D155" s="3"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="18" customHeight="1">
       <c r="A156" s="1">
         <v>300</v>
       </c>
@@ -10902,7 +9113,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="18" customHeight="1">
       <c r="A157" s="1">
         <v>301</v>
       </c>
@@ -10913,7 +9124,7 @@
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="18" customHeight="1">
       <c r="A158" s="1">
         <v>302</v>
       </c>
@@ -10924,7 +9135,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="18" customHeight="1">
       <c r="A159" s="1">
         <v>303</v>
       </c>
@@ -10935,7 +9146,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="18" customHeight="1">
       <c r="A160" s="1">
         <v>304</v>
       </c>
@@ -10946,7 +9157,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="18" customHeight="1">
       <c r="A161" s="1">
         <v>305</v>
       </c>
@@ -10957,7 +9168,7 @@
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="18" customHeight="1">
       <c r="A162" s="1">
         <v>306</v>
       </c>
@@ -10968,7 +9179,7 @@
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="18" customHeight="1">
       <c r="A163" s="1">
         <v>307</v>
       </c>
@@ -10979,7 +9190,7 @@
       <c r="D163" s="3"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="18" customHeight="1">
       <c r="A164" s="1">
         <v>308</v>
       </c>
@@ -10990,7 +9201,7 @@
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="18" customHeight="1">
       <c r="A165" s="1">
         <v>309</v>
       </c>
@@ -11001,7 +9212,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="18" customHeight="1">
       <c r="A166" s="1">
         <v>310</v>
       </c>
@@ -11012,7 +9223,7 @@
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="18" customHeight="1">
       <c r="A167" s="1">
         <v>311</v>
       </c>
@@ -11023,7 +9234,7 @@
       <c r="D167" s="3"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="18" customHeight="1">
       <c r="A168" s="1">
         <v>312</v>
       </c>
@@ -11034,7 +9245,7 @@
       <c r="D168" s="6"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="18" customHeight="1">
       <c r="A169" s="1">
         <v>313</v>
       </c>
@@ -11044,7 +9255,7 @@
       <c r="C169" s="2"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="18" customHeight="1">
       <c r="A170" s="1">
         <v>314</v>
       </c>
@@ -11054,7 +9265,7 @@
       <c r="C170" s="2"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="18" customHeight="1">
       <c r="A171" s="1">
         <v>315</v>
       </c>
@@ -11064,7 +9275,7 @@
       <c r="C171" s="2"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="18" customHeight="1">
       <c r="A172" s="1">
         <v>316</v>
       </c>
@@ -11074,7 +9285,7 @@
       <c r="C172" s="2"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="18" customHeight="1">
       <c r="A173" s="1">
         <v>317</v>
       </c>
@@ -11084,7 +9295,7 @@
       <c r="C173" s="2"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="18" customHeight="1">
       <c r="A174" s="1">
         <v>318</v>
       </c>
@@ -11094,7 +9305,7 @@
       <c r="C174" s="2"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="18" customHeight="1">
       <c r="A175" s="1">
         <v>319</v>
       </c>
@@ -11104,7 +9315,7 @@
       <c r="C175" s="2"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="18" customHeight="1">
       <c r="A176" s="1">
         <v>320</v>
       </c>
@@ -11114,7 +9325,7 @@
       <c r="C176" s="2"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="18" customHeight="1">
       <c r="A177" s="1">
         <v>321</v>
       </c>
@@ -11124,7 +9335,7 @@
       <c r="C177" s="2"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="18" customHeight="1">
       <c r="A178" s="1">
         <v>322</v>
       </c>
@@ -11134,7 +9345,7 @@
       <c r="C178" s="2"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="18" customHeight="1">
       <c r="A179" s="1">
         <v>323</v>
       </c>
@@ -11144,7 +9355,7 @@
       <c r="C179" s="2"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="18" customHeight="1">
       <c r="A180" s="1">
         <v>324</v>
       </c>
@@ -11154,7 +9365,7 @@
       <c r="C180" s="2"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="18" customHeight="1">
       <c r="A181" s="1">
         <v>325</v>
       </c>
@@ -11164,7 +9375,7 @@
       <c r="C181" s="2"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="18" customHeight="1">
       <c r="A182" s="1">
         <v>326</v>
       </c>
@@ -11174,7 +9385,7 @@
       <c r="C182" s="2"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="18" customHeight="1">
       <c r="A183" s="1">
         <v>327</v>
       </c>
@@ -11184,213 +9395,213 @@
       <c r="C183" s="2"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="18" customHeight="1">
       <c r="A184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="18" customHeight="1">
       <c r="A185" s="4"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="18" customHeight="1">
       <c r="A186" s="4"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="18" customHeight="1">
       <c r="A187" s="4"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="18" customHeight="1">
       <c r="A188" s="4"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="18" customHeight="1">
       <c r="A189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="18" customHeight="1">
       <c r="A190" s="4"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="18" customHeight="1">
       <c r="A191" s="4"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="18" customHeight="1">
       <c r="A192" s="4"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="18" customHeight="1">
       <c r="A193" s="4"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="18" customHeight="1">
       <c r="A194" s="4"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="18" customHeight="1">
       <c r="A195" s="4"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="18" customHeight="1">
       <c r="A196" s="4"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="18" customHeight="1">
       <c r="A197" s="4"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="18" customHeight="1">
       <c r="A198" s="4"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="18" customHeight="1">
       <c r="A199" s="4"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="18" customHeight="1">
       <c r="A200" s="4"/>
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="18" customHeight="1">
       <c r="A201" s="4"/>
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="18" customHeight="1">
       <c r="A202" s="4"/>
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="18" customHeight="1">
       <c r="A203" s="4"/>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="18" customHeight="1">
       <c r="A204" s="4"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="18" customHeight="1">
       <c r="A205" s="4"/>
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="18" customHeight="1">
       <c r="A206" s="4"/>
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="18" customHeight="1">
       <c r="A207" s="4"/>
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="18" customHeight="1">
       <c r="A208" s="4"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="18" customHeight="1">
       <c r="A209" s="4"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="18" customHeight="1">
       <c r="A210" s="4"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="18" customHeight="1">
       <c r="A211" s="4"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="18" customHeight="1">
       <c r="A212" s="4"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="18" customHeight="1">
       <c r="A213" s="4"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="18" customHeight="1">
       <c r="A214" s="4"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="18" customHeight="1">
       <c r="A215" s="4"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="18" customHeight="1">
       <c r="A216" s="4"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="18" customHeight="1">
       <c r="A217" s="4"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="18" customHeight="1">
       <c r="A218" s="4"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="18" customHeight="1">
       <c r="A219" s="4"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="18" customHeight="1">
       <c r="A220" s="4"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="18" customHeight="1">
       <c r="A221" s="4"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="18" customHeight="1">
       <c r="A222" s="4"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="18" customHeight="1">
       <c r="A223" s="4"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="18" customHeight="1">
       <c r="A224" s="4"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="18" customHeight="1">
       <c r="A225" s="4"/>
-      <c r="E225" s="14"/>
+      <c r="E225" s="12"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="14"/>
+    <row r="226" spans="1:7" ht="18" customHeight="1">
+      <c r="A226" s="12"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="18" customHeight="1">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="18" customHeight="1">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="18" customHeight="1">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="18" customHeight="1">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="18" customHeight="1">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="18" customHeight="1">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="18" customHeight="1">
       <c r="A233" s="4"/>
       <c r="E233" s="7"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="18" customHeight="1">
       <c r="A234" s="4"/>
     </row>
-    <row r="299" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="18" customHeight="1">
       <c r="A299" s="4"/>
     </row>
-    <row r="300" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="18" customHeight="1">
       <c r="A300" s="4"/>
     </row>
   </sheetData>
@@ -11402,12 +9613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
